--- a/Metrics Calculations/Project 3 - Apache Commons Collections/Apache Commons Collections Calculations(All Metrics).xlsx
+++ b/Metrics Calculations/Project 3 - Apache Commons Collections/Apache Commons Collections Calculations(All Metrics).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkhas\OneDrive\Desktop\SM Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559E1A9F-BE8C-4397-87EA-55BF30F179CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BD4CA-7985-41D3-8D80-D0B07F757F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B575E123-F2D3-4842-8E2A-574F9A310267}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collections" sheetId="2" r:id="rId1"/>
+    <sheet name="Collections" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
     <author>Khashyap V</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{EA30D4C1-020B-4ECE-85B6-3A8B0377A818}">
+    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{E1682637-B957-47AD-86E1-119C5C7CC8FE}">
       <text>
         <r>
           <rPr>
@@ -56,8 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Relative Churn code between 4.2 and 4.3
-</t>
+Relative Churned Code between 4.2 and 4.3</t>
         </r>
       </text>
     </comment>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Apache Commons – Collections (v4.3) Metric Calculations</t>
   </si>
@@ -147,6 +146,21 @@
   </si>
   <si>
     <t>PD Bug Density(KLOC)</t>
+  </si>
+  <si>
+    <t>4.1-RC1</t>
+  </si>
+  <si>
+    <t>4.1-RC2</t>
+  </si>
+  <si>
+    <t>4.2-RC1</t>
+  </si>
+  <si>
+    <t>c2e5d20</t>
+  </si>
+  <si>
+    <t>132622e</t>
   </si>
 </sst>
 </file>
@@ -397,13 +411,13 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,62 +737,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059A9D7E-F34F-4EB0-9236-366D0502D508}">
-  <dimension ref="A1:AA64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCE1B38-6CA3-438E-A9F5-7259F302B0E0}">
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:27" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" s="1" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="2:27" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="2:30" s="1" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="2:27" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:30" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -800,23 +816,32 @@
       <c r="J4" s="3">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4">
         <v>4.2</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="R4" s="5">
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -839,23 +864,32 @@
         <v>7</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="AD5"/>
+    </row>
+    <row r="6" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -875,26 +909,35 @@
         <v>13</v>
       </c>
       <c r="J6" s="6">
-        <v>857342</v>
+        <v>54993</v>
       </c>
       <c r="K6" s="7">
-        <v>993146</v>
+        <v>64574</v>
       </c>
       <c r="L6" s="7">
-        <v>1018838</v>
+        <v>64614</v>
       </c>
       <c r="M6" s="7">
+        <v>64614</v>
+      </c>
+      <c r="N6" s="7">
+        <v>66511</v>
+      </c>
+      <c r="O6" s="7">
+        <v>66511</v>
+      </c>
+      <c r="P6" s="7">
         <v>66777</v>
       </c>
-      <c r="N6" s="7">
+      <c r="Q6" s="7">
         <v>66820</v>
       </c>
-      <c r="O6" s="8">
-        <v>1020198</v>
-      </c>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="R6" s="8">
+        <v>66820</v>
+      </c>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -916,24 +959,33 @@
       <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="7">
-        <v>767</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="K7" s="6">
+        <v>10652</v>
+      </c>
+      <c r="L7" s="6">
+        <v>91</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>4957</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>766</v>
+      </c>
+      <c r="Q7" s="7">
         <v>67</v>
       </c>
-      <c r="O7" s="8">
-        <v>953379</v>
-      </c>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7"/>
+    </row>
+    <row r="8" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -961,34 +1013,45 @@
       <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>16</v>
+      <c r="M8" s="6">
+        <f>(K7+L7)/M6</f>
+        <v>0.16626427709165195</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="8">
-        <f>(M7+N7+O7)/O6</f>
-        <v>0.93532137879117583</v>
-      </c>
-      <c r="AA8"/>
-    </row>
-    <row r="9" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:27" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="O8" s="6">
+        <f>N7/O6</f>
+        <v>7.4529025274014823E-2</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="8">
+        <f>(P7+Q7+R7)/R6</f>
+        <v>1.2466327446872195E-2</v>
+      </c>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:30" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="I10" s="13" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="I10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="2:27" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:30" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1083,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" s="1" customFormat="1" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1179,7 @@
         <v>1020198</v>
       </c>
     </row>
-    <row r="15" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1215,7 @@
         <v>1.96040376475939E-6</v>
       </c>
     </row>
-    <row r="16" spans="2:27" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1174,20 +1237,20 @@
       </c>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1238,12 +1301,12 @@
     <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B17:O17"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
